--- a/data/01.Raw/Road_composition/road_composition.xlsx
+++ b/data/01.Raw/Road_composition/road_composition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\leo\double-diplome\COURSES\year 2\Master thesis\code\master_thesis\data\01.Raw\Road_composition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3ACE6B2-F462-4E57-B2C0-50A559F52DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5D30B1-20CB-4557-B7E3-FCBB2D8CD600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C1DCC14B-A3AC-420B-A988-CE125A3A02C5}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
